--- a/biology/Zoologie/Conopophage_roux/Conopophage_roux.xlsx
+++ b/biology/Zoologie/Conopophage_roux/Conopophage_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conopophaga lineata
 Le Conopophage roux (Conopophaga lineata) est une espèce de passereaux de la famille des Conopophagidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 14 cm de longueur pour une masse de 16 à 27 g.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit au Brésil et en Argentine.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts de plaine, les maquis et forêts montagneuses humides.
 </t>
@@ -605,15 +623,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (19 juin 2018)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 juin 2018) :
 sous-espèce Conopophaga lineata lineata (Wied-Neuwied, 1831)
 sous-espèce Conopophaga lineata vulgaris Ménétries, 1835
-Selon Catalogue of Life                                   (19 juin 2018)[3] :
+Selon Catalogue of Life                                   (19 juin 2018) :
 sous-espèce Conopophaga lineata lineata (Wied-Neuwied, 1831)
 sous-espèce Conopophaga lineata vulgaris Ménétriés, 1835
-Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[1] :
+Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018) :
 sous-espèce Conopophaga lineata lineata (zu Wied-Neuwied, 1831)
 sous-espèce Conopophaga lineata vulgaris Ménétries, 1835</t>
         </is>
